--- a/Result/LSTM Multi/Service/BRA.xlsx
+++ b/Result/LSTM Multi/Service/BRA.xlsx
@@ -399,7 +399,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>29.94925716914291</v>
+        <v>40.39216130279042</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>30.18430948209948</v>
+        <v>41.75996842349758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>32.25920381119727</v>
+        <v>42.4190255795566</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>31.96205941340536</v>
+        <v>43.44155036882159</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>34.27124671763331</v>
+        <v>43.32850625327787</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>32.47170291984406</v>
+        <v>41.51539060257752</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>30.67637054548271</v>
+        <v>40.64470131460936</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>29.88182258893424</v>
+        <v>41.24641256639161</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>29.978592167725</v>
+        <v>44.78031830526385</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>29.26089572859051</v>
+        <v>48.36730926609516</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>22.82812987817549</v>
+        <v>60.49660594273774</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>21.83906737688613</v>
+        <v>60.54971376498944</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>23.30859761087759</v>
+        <v>68.35745481971038</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>26.04973651086909</v>
+        <v>73.33788012680031</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>23.72123370088062</v>
+        <v>56.89434247242718</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>14.54227915106878</v>
+        <v>58.12141637349539</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>13.06719123672183</v>
+        <v>60.31887979344722</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>13.01862537321251</v>
+        <v>60.6057128176905</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>12.1551371940101</v>
+        <v>61.11859304813537</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>12.3085333305115</v>
+        <v>60.20365663472661</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>13.13465959355212</v>
+        <v>58.25186124746511</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>13.0895379354002</v>
+        <v>57.71369224739362</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>12.35696266737341</v>
+        <v>57.3481454732844</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>14.45076456305325</v>
+        <v>56.35782813582522</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>15.09953015638708</v>
+        <v>54.92047110790613</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>14.73828114102268</v>
+        <v>56.07589161025081</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>14.10894587564269</v>
+        <v>57.13812720270957</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>14.1542648058524</v>
+        <v>57.72623620312919</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>13.95517690387126</v>
+        <v>56.80486176779907</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>13.05946215179974</v>
+        <v>59.14505921092611</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>12.72185960924913</v>
+        <v>57.61292197538091</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>11.78379767126887</v>
+        <v>57.56816931633505</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>10.67594230844642</v>
+        <v>58.73360250964264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>10.47961229213965</v>
+        <v>59.67875798588496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>10.33709739950734</v>
+        <v>61.25097401370299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>10.52093744973542</v>
+        <v>62.30786717674127</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>10.78645112033017</v>
+        <v>63.20369582826915</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>7.943321228027344</v>
+        <v>58.14369583129883</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>10.3547420501709</v>
+        <v>57.83975601196289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>11.15996742248535</v>
+        <v>57.82573699951172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>14.25530242919922</v>
+        <v>57.39543151855469</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>15.60176277160645</v>
+        <v>57.41735076904297</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>29.94925716914291</v>
+        <v>40.39216130279042</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -785,7 +785,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>30.18430948209948</v>
+        <v>41.75996842349758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -793,7 +793,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>32.25920381119727</v>
+        <v>42.4190255795566</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -801,7 +801,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>31.96205941340536</v>
+        <v>43.44155036882159</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -809,7 +809,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>34.27124671763331</v>
+        <v>43.32850625327787</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -817,7 +817,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>32.47170291984406</v>
+        <v>41.51539060257752</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -825,7 +825,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>30.67637054548271</v>
+        <v>40.64470131460936</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -833,7 +833,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>29.88182258893424</v>
+        <v>41.24641256639161</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -841,7 +841,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>29.978592167725</v>
+        <v>44.78031830526385</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -849,7 +849,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>29.26089572859051</v>
+        <v>48.36730926609516</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -857,7 +857,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>22.82812987817549</v>
+        <v>60.49660594273774</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -865,7 +865,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>21.83906737688613</v>
+        <v>60.54971376498944</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -873,7 +873,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>23.30859761087759</v>
+        <v>68.35745481971038</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -881,7 +881,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>26.04973651086909</v>
+        <v>73.33788012680031</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -889,7 +889,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>23.72123370088062</v>
+        <v>56.89434247242718</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -897,7 +897,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>14.54227915106878</v>
+        <v>58.12141637349539</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -905,7 +905,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>13.06719123672183</v>
+        <v>60.31887979344722</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -913,7 +913,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>13.01862537321251</v>
+        <v>60.6057128176905</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -921,7 +921,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>12.1551371940101</v>
+        <v>61.11859304813537</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -929,7 +929,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>12.3085333305115</v>
+        <v>60.20365663472661</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -937,7 +937,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>13.13465959355212</v>
+        <v>58.25186124746511</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -945,7 +945,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>13.0895379354002</v>
+        <v>57.71369224739362</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -953,7 +953,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>12.35696266737341</v>
+        <v>57.3481454732844</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -961,7 +961,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>14.45076456305325</v>
+        <v>56.35782813582522</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -969,7 +969,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>15.09953015638708</v>
+        <v>54.92047110790613</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -977,7 +977,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>14.73828114102268</v>
+        <v>56.07589161025081</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -985,7 +985,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>14.10894587564269</v>
+        <v>57.13812720270957</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -993,7 +993,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>14.1542648058524</v>
+        <v>57.72623620312919</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>13.95517690387126</v>
+        <v>56.80486176779907</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>13.05946215179974</v>
+        <v>59.14505921092611</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>12.72185960924913</v>
+        <v>57.61292197538091</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>11.78379767126887</v>
+        <v>57.56816931633505</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>10.67594230844642</v>
+        <v>58.73360250964264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>10.47961229213965</v>
+        <v>59.67875798588496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>10.33709739950734</v>
+        <v>61.25097401370299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>10.52093744973542</v>
+        <v>62.30786717674127</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>10.78645112033017</v>
+        <v>63.20369582826915</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>10.72149801387266</v>
+        <v>63.33867286074985</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>10.52845738117833</v>
+        <v>62.65335034702257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>10.33250053589602</v>
+        <v>63.06784925390022</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>9.663418179444509</v>
+        <v>62.79521127395249</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>2021</v>
       </c>
       <c r="B43">
-        <v>9.645341701464915</v>
+        <v>59.38128912386762</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>11.5971794128418</v>
+        <v>58.41910171508789</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>12.0890645980835</v>
+        <v>57.86979675292969</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>11.69682121276855</v>
+        <v>57.81549072265625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>12.67868804931641</v>
+        <v>57.52509689331055</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>12.73442459106445</v>
+        <v>57.40982055664062</v>
       </c>
     </row>
   </sheetData>
